--- a/medicine/Psychotrope/Royale_(cigarette)/Royale_(cigarette).xlsx
+++ b/medicine/Psychotrope/Royale_(cigarette)/Royale_(cigarette).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Royale est une marque de cigarettes qui fut connue pour sa gamme de cigarettes menthol. Elle est interdite depuis le 20 mai 2020 en France[pourquoi ?].
-Elle fut lancée en 1956 par la Société d'exploitation industrielle des tabacs et des allumettes[1], qui avait alors le monopole sur la fabrication des cigarettes en France. Après avoir appartenu au groupe Altadis, et à la suite de son rachat en 2008, elle fait aujourd'hui partie d'Imperial Tobacco.
+Elle fut lancée en 1956 par la Société d'exploitation industrielle des tabacs et des allumettes, qui avait alors le monopole sur la fabrication des cigarettes en France. Après avoir appartenu au groupe Altadis, et à la suite de son rachat en 2008, elle fait aujourd'hui partie d'Imperial Tobacco.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Elle propose en France les produits suivants:
